--- a/ResultadoEleicoesDistritos/R. A. AÇORES_HORTA.xlsx
+++ b/ResultadoEleicoesDistritos/R. A. AÇORES_HORTA.xlsx
@@ -597,61 +597,61 @@
         <v>3903</v>
       </c>
       <c r="H2" t="n">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I2" t="n">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="J2" t="n">
-        <v>1610</v>
+        <v>1627</v>
       </c>
       <c r="K2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="L2" t="n">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N2" t="n">
         <v>311</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>19</v>
+      </c>
+      <c r="S2" t="n">
+        <v>195</v>
+      </c>
+      <c r="T2" t="n">
+        <v>284</v>
+      </c>
+      <c r="U2" t="n">
+        <v>23</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2421</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2496</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
-      </c>
-      <c r="R2" t="n">
-        <v>24</v>
-      </c>
-      <c r="S2" t="n">
-        <v>181</v>
-      </c>
-      <c r="T2" t="n">
-        <v>301</v>
-      </c>
-      <c r="U2" t="n">
-        <v>16</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2503</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2415</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2</v>
-      </c>
       <c r="Z2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AA2" t="n">
         <v>19</v>
